--- a/portal/repositorio/CLOROX/MATRIZ_CLOROX.xlsx
+++ b/portal/repositorio/CLOROX/MATRIZ_CLOROX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manuel\OneDrive\Mentecreativa\Power BI\1- CARGA DE CAMPAÑAS\CLOROX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8222668d6376a54f/Mentecreativa/Power BI/2 - PANELES BI/CLOROX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43233C0B-625C-4934-8157-0E01ACF3BB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{43233C0B-625C-4934-8157-0E01ACF3BB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{741093DA-8D62-442A-A7A8-320767F4427B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7452C65D-6E1C-43BD-8F12-28ED56C392EB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>TRADE</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>DARWIN</t>
+  </si>
+  <si>
+    <t>CAMPAÑA IMPLEMENTACION BTS LIDER EXPRESS ENERO 2026</t>
+  </si>
+  <si>
+    <t>CAMPAÑA IMPLEMENTACION BTS HIPER LIDER ENERO 2026</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>POETT1500</t>
+  </si>
+  <si>
+    <t>CAMPAÑA IMPLEMENTACION POETT1500 LIDER EXPRESS ENERO 2026</t>
+  </si>
+  <si>
+    <t>CAMPAÑA IMPLEMENTACION POETT1500 HIPER LIDER ENERO 2026</t>
   </si>
 </sst>
 </file>
@@ -545,11 +563,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9999E96D-4CFB-4E05-B33D-24F4D0D91426}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -605,7 +623,7 @@
         <v>46022</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G6" si="0">WORKDAY.INTL(F2,10,1,0)+1</f>
+        <f t="shared" ref="G2:G10" si="0">WORKDAY.INTL(F2,10,1,0)+1</f>
         <v>46037</v>
       </c>
       <c r="H2" t="s">
@@ -710,6 +728,102 @@
       </c>
       <c r="H6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3">
+        <v>46050</v>
+      </c>
+      <c r="F7" s="3">
+        <v>46050</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <v>46050</v>
+      </c>
+      <c r="F8" s="3">
+        <v>46050</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3">
+        <v>46050</v>
+      </c>
+      <c r="F9" s="3">
+        <v>46050</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>46050</v>
+      </c>
+      <c r="F10" s="3">
+        <v>46050</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
